--- a/Tables/对话系统规范.xlsx
+++ b/Tables/对话系统规范.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD4D24-FC32-4BF3-AF09-01D422574F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A26095-E948-49B6-9526-2C08E01DC8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="4695" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置表规范" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>对话表规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,63 +43,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注（对话结束之后做什么）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个Sheet对应一幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只在最后一句话结束才能做些什么，不然的话分2个sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话UI上的角色立绘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽400 高500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴图格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目前手动制作资源，后续走自动读表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贴图命名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和对话表中的角色名完全对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGBA  png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DialogueData命名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage_幕序号_场景名_对话出现的顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eg:Stage_1_Hall_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴图尺寸（暂定）</t>
+    <t>Sheet名称规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet内容规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付佩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大家好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击进入游戏的第一幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话结束触发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴拉巴拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴图尺寸(宽x高)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在最后一句话结束才能做些什么，不然的话分2个sheet，做的事写在“对话结束触发事件”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用在对话UI上的角色形象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400x500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注随便写什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非角色部分不透明度为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scriptable类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialogueData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_幕序号_场景名_对话序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_1_Hall_1</t>
+  </si>
+  <si>
+    <t>Assets/Resources/DialogueDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读对话表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入场景Hall Outside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话表.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名_场景名_幕序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序章_Hall_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,21 +231,62 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -159,11 +295,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -187,65 +344,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1924051</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>108942</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAD0BF3-8B71-0E8A-8D66-513FBD682C81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419101" y="1019175"/>
-          <a:ext cx="5124450" cy="5604867"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1546384</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41434</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -268,7 +376,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="571500"/>
+          <a:off x="9896475" y="352425"/>
           <a:ext cx="7204234" cy="4857750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -602,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,99 +724,341 @@
     <col min="4" max="4" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -719,34 +1069,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB38FAC6-8B1C-4729-8E66-054C7116456B}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="2" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="32.625" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
